--- a/bin/xlsx/type/ItemBigType.xlsx
+++ b/bin/xlsx/type/ItemBigType.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -61,26 +61,18 @@
     <t>currency</t>
   </si>
   <si>
-    <t>货币类</t>
+    <t>货币类(数值类）</t>
     <rPh sb="0" eb="2">
       <t>congdaopai'hang'bangleiyong</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力型货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +125,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -178,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -195,7 +180,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,17 +554,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
